--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value647.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value647.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.311551364543432</v>
+        <v>1.194072008132935</v>
       </c>
       <c r="B1">
-        <v>2.289656600136993</v>
+        <v>2.353518724441528</v>
       </c>
       <c r="C1">
-        <v>2.843895483706549</v>
+        <v>3.617908000946045</v>
       </c>
       <c r="D1">
-        <v>3.279317916879499</v>
+        <v>3.183145761489868</v>
       </c>
       <c r="E1">
-        <v>2.017712221195647</v>
+        <v>1.136903882026672</v>
       </c>
     </row>
   </sheetData>
